--- a/common/test.xlsx
+++ b/common/test.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>AJ</t>
-  </si>
-  <si>
-    <t>KB</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>h</t>
   </si>
@@ -30,15 +24,75 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -52,6 +106,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -59,132 +135,50 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -197,43 +191,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,19 +347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -269,115 +359,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -391,43 +385,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -435,8 +397,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,6 +418,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -471,20 +468,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -496,10 +490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -508,133 +502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -967,7 +961,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -979,19 +973,19 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
+      <c r="B1" s="1">
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>
@@ -1002,7 +996,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>51</v>

--- a/common/test.xlsx
+++ b/common/test.xlsx
@@ -26,8 +26,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -39,7 +39,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -61,15 +99,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -83,13 +113,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -121,23 +144,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -159,24 +175,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,25 +191,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,13 +317,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,133 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -385,11 +385,43 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -399,21 +431,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -442,43 +459,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,10 +490,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,133 +502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>

--- a/common/test.xlsx
+++ b/common/test.xlsx
@@ -24,9 +24,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -52,24 +52,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -92,13 +116,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -113,11 +130,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,44 +174,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -191,12 +191,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -209,114 +275,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -329,49 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -382,6 +382,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -396,17 +407,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -450,15 +450,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -482,6 +473,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -493,7 +493,7 @@
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,133 +502,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -985,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1">
         <v>10</v>

--- a/common/test.xlsx
+++ b/common/test.xlsx
@@ -14,9 +14,1470 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>h</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="488">
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>奥迪</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_9_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>阿尔法·罗密欧</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_92_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>阿斯顿·马丁</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_97_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>爱驰</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_313_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>ALPINA</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_268_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>ARCFOX</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_289_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>ABT</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_318_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>AC Schnitzer</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_319_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>艾康尼克</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_326_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>奔驰</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_2_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>宝马</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_3_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>本田</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_26_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>别克</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_127_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>宝骏</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_157_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>标致</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_5_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>比亚迪</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_15_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>奔腾</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_59_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>保时捷</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_82_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>宝沃</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_236_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>比速</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_263_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>BEIJING汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_195_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>北汽新能源</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_216_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>北汽威旺</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_168_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>北汽幻速</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_211_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>北汽昌河</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_129_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>北汽制造</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_14_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>北汽道达</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_282_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>铂驰</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_286_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>博郡汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_324_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>北京清行</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_340_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_163_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>宾利</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_85_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>布加迪</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_135_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>拜腾</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_320_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>巴博斯</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_172_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>长安汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_136_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>长安欧尚</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_159_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>长安凯程</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_281_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>车驰汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_341_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>长安跨越</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_283_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>长城</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_21_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>成功汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_221_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>大众</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_8_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>东风风行</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_115_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>东风风神</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_141_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>东风风度</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_197_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>东风小康</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_205_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>东风风光</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_253_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>大乘汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_306_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>东风富康</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_311_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>大运汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_371_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>Donkervoort</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_410_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>东风</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_27_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>东风·瑞泰特</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_310_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>东南</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_29_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>道奇</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_113_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_179_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>电咖</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_294_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>丰田</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_7_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>福特</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_17_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>菲亚特</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_40_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>福迪</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_67_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>法拉利</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_91_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>福田</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_128_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>福汽启腾</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_208_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>枫叶汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_395_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>Faraday Future</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_257_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>广汽传祺</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_147_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>广汽新能源</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_295_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>广汽吉奥</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_63_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>广汽日野</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_133_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>观致</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_182_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>国金</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_290_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>国能汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_321_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>国机智骏</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_331_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>GFG Style</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_332_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>格罗夫</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_334_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>广汽蔚来</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_336_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>高合HiPhi</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_349_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>GMC</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_109_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>光冈</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_110_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>海马</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_32_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>红旗</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_58_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>华泰</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_112_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>哈弗</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_196_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>汉腾</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_259_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>哈飞</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_31_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>华普</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_44_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>汇众</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_45_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>黄海</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_52_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>悍马</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_108_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>海格</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_170_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>恒天</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_181_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>华颂</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_225_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>华凯</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_262_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>华骐</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_292_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>红星汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_302_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>汉龙汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_350_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>恒驰</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_353_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>Hennessey</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_389_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>吉利</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_34_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>江淮</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_35_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>Jeep</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_4_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>捷豹</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_98_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>捷途</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_296_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>江铃</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_37_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>金杯</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_39_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>金龙</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_57_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>九龙</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_152_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>金旅</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_161_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>君马</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_279_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>奇点汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_287_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>钧天汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_322_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>捷达</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_323_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>几何汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_327_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>凯迪拉克</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_107_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>克莱斯勒</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_51_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>凯翼</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_220_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>科尼赛克</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_145_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>开瑞</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_150_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>KTM</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_212_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>卡威</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_213_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>卡升汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_214_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>卡尔曼</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_314_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>Karma</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_330_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>开沃汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_342_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>卡尔森</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_188_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>陆风</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_36_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>雷克萨斯</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_94_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>林肯</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_95_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>路虎</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_96_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>雷诺</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_99_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>领克</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_267_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>铃木</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_16_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>力帆</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_76_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>劳斯莱斯</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_80_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>路特斯</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_83_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>兰博基尼</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_86_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>莲花</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_146_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>猎豹</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_153_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>理念</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_166_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>罗伦士</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_278_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>零跑汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_301_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>领途汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_307_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>理想汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_309_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>罗夫哈特</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_343_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>LEVC</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_346_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>凌宝汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_396_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>雷丁</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_229_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>马自达</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_18_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>名爵</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_79_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>MINI</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_81_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>迈巴赫</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_88_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>玛莎拉蒂</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_93_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>迈凯伦</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_183_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>迈莎锐</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_344_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>摩根</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_201_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>纳智捷</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_155_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>哪吒汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_325_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>讴歌</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_84_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>欧拉</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_305_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>欧宝</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_104_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>欧朗</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_171_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>帕加尼</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_185_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>Polestar极星</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_293_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>奇瑞</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_42_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>起亚</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_28_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>启辰</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_156_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>庆铃汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_43_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>前途</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_231_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>清源汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_328_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>乔治·巴顿</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_339_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>全球鹰</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_241_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>日产</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_30_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>荣威</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_78_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>瑞麒</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_142_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>瑞驰新能源</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_337_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>如虎</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_345_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>斯柯达</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_10_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>smart</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_89_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>斯巴鲁</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_111_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>SWM斯威汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_260_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>思皓</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_299_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>三菱</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_25_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>双环</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_50_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>双龙</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_102_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>萨博</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_103_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>世爵</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_137_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>上汽大通MAXUS</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_165_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>赛麟</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_239_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>SERES赛力斯</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_317_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>SRM鑫源</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_338_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>思铭</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_333_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>腾势</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_175_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>特斯拉</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_189_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>天际汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_312_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>唐骏汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_365_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>五菱汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_48_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>沃尔沃</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_19_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>蔚来</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_266_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>WEY</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_270_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>五十铃</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_132_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>威麟</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_140_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>威兹曼</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_186_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>潍柴欧睿</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_247_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>威马汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_298_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>雪铁龙</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_6_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>雪佛兰</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_49_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>现代</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_13_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>西雅特</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_87_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>小鹏汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_297_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>新特汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_304_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>星途</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_316_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>新宝骏</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_359_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>英菲尼迪</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_100_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>驭胜</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_258_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>依维柯</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_41_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>一汽</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_53_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>永源</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_75_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>野马汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_138_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>宇通客车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_178_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>英致汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_207_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>云度</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_285_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>裕路</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_291_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>云雀汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_308_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>银隆新能源</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_335_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>远程汽车</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_348_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>众泰</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_77_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>中华</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_60_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>中兴</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_33_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>之诺</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_203_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>知豆</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_233_100.png?v=20200525</t>
+  </si>
+  <si>
+    <t>Zenvo</t>
+  </si>
+  <si>
+    <t>https://image.bitautoimg.com/bt/car/default/images/logo/masterbrand/png/100/m_347_100.png?v=20200525</t>
   </si>
 </sst>
 </file>
@@ -24,10 +1485,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -46,6 +1507,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -59,41 +1550,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,53 +1574,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,6 +1604,44 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -191,13 +1652,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,49 +1730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -263,103 +1742,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,6 +1764,78 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -382,6 +1843,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -396,17 +1866,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -430,22 +1909,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -465,20 +1929,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,10 +1951,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -502,133 +1963,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -958,59 +2419,2578 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C197" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="C200" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C208" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C210" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C212" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="C215" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="C216" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="C217" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="C218" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="C219" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C220" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C221" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C222" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="C223" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C224" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C226" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C227" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C228" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C229" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C230" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C231" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C233" s="1" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
